--- a/data/trans_bre/P12A1_3_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P12A1_3_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>19,59</t>
+          <t>8,43</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>23,08</t>
+          <t>4,46</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12,98</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,55</t>
+          <t>7,14</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>35,76%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>42,38%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>20,88%</t>
+          <t>83,61%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>20,14%</t>
+          <t>37,92%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>20,25%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>69,59%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 41,28</t>
+          <t>-0,74; 18,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,58; 38,67</t>
+          <t>-1,34; 11,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 27,61</t>
+          <t>-3,08; 9,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 25,83</t>
+          <t>-1,51; 15,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 105,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,39; 88,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 53,22</t>
+          <t>-12,69; 328,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-10,43; 59,71</t>
+          <t>-10,83; 136,56</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-15,27; 81,76</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-15,48; 252,89</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>11,19</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,01</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,66</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,17</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>30,02%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>24,8%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>27,7%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>25,1%</t>
+          <t>5,39%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>8,14%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>9,35%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 26,55</t>
+          <t>-3,99; 5,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 23,94</t>
+          <t>-2,68; 3,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 24,47</t>
+          <t>-2,23; 4,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 21,65</t>
+          <t>-3,5; 4,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-10,75; 90,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-11,99; 91,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-19,41; 100,83</t>
+          <t>-44,59; 94,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-21,68; 99,02</t>
+          <t>-39,42; 77,6</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-36,95; 105,32</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-41,4; 86,06</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,75</t>
+          <t>3,75</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,89</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>12,61</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>20,89%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>16,56%</t>
+          <t>192,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>44,91%</t>
+          <t>34,64%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>43,54%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-13,77%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -868,49 +1000,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-24,84; 34,28</t>
+          <t>0,82; 6,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-24,15; 22,06</t>
+          <t>-1,52; 3,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,36; 28,89</t>
+          <t>-1,04; 4,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-14,78; 35,98</t>
+          <t>-4,7; 2,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-44,18; 140,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-48,64; 86,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-25,27; 106,72</t>
+          <t>-1,76; 795,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-35,87; 272,63</t>
+          <t>-40,78; 202,65</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-28,06; 180,11</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-66,91; 93,34</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,19</t>
+          <t>3,18</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>16,07</t>
+          <t>4,04</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,12</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,15</t>
+          <t>5,65</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>35,67%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>38,28%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>30,15%</t>
+          <t>50,03%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>29,68%</t>
+          <t>62,42%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>86,71%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,54 +1140,222 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,93; 26,24</t>
+          <t>-1,16; 6,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,78; 25,79</t>
+          <t>-0,56; 8,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,99; 23,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,65; 21,0</t>
+          <t>0,59; 11,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,95; 73,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,59; 72,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,14; 64,42</t>
+          <t>-14,94; 155,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,07; 63,04</t>
+          <t>-11,87; 182,14</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>4,81; 257,22</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3,09</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2,1</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,89</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3,03</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>51,07%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>34,68%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>27,43%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>46,2%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0,74; 5,39</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-0,2; 3,81</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-0,2; 4,23</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0,43; 5,62</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>9,72; 109,6</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-3,62; 72,48</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-3,88; 70,33</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>4,03; 105,27</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P12A1_3_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P12A1_3_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>8,43</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>4,46</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>3,21</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>7,14</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>83,61%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>37,92%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>20,25%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>69,59%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>8.042640318183638</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>4.350123572272128</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>3.006281359663796</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>8.143123401285806</v>
+      </c>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="6" t="n">
+        <v>0.7925021503514167</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.3668586281773039</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.190181885520579</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.7956682356954924</v>
+      </c>
+      <c r="M4" s="6" t="inlineStr"/>
+      <c r="N4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-0,74; 18,36</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-1,34; 11,19</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-3,08; 9,89</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-1,51; 15,93</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-12,69; 328,02</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-10,83; 136,56</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-15,27; 81,76</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-15,48; 252,89</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-1.141134374907506</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-1.637096587017188</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-3.178707309708543</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-1.057528414023651</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="6" t="n">
+        <v>-0.1536387132608424</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.1167153032196521</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.1591850387512282</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.1097669838093785</v>
+      </c>
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>17.89986759070784</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>10.99541347275497</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>9.487576756590336</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>17.61151180751039</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="6" t="n">
+        <v>3.22720195905424</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.327987406069076</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.7722097266852649</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>2.786019023818988</v>
+      </c>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,03</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,3</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,43</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,61</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>0,37%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>5,39%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>8,14%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>9,35%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-3,99; 5,26</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-2,68; 3,36</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-2,23; 4,3</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-3,5; 4,28</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-44,59; 94,13</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-39,42; 77,6</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-36,95; 105,32</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-41,4; 86,06</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>-0.4136258887244545</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.3458139040460842</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.3592284257210102</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.7196188335959863</v>
+      </c>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="6" t="n">
+        <v>-0.06016624174863432</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.06553073977290999</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.07022424965522298</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.1148714633483787</v>
+      </c>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>3,75</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,0</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,47</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-0,64</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>192,0%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>34,64%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>43,54%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-13,77%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-4.401136328941112</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-2.51155954005799</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-2.234065752352707</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-3.120398995162352</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="6" t="n">
+        <v>-0.480713055230902</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.3876376926581512</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.374257933206765</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.4001113870069681</v>
+      </c>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>0,82; 6,84</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-1,52; 3,59</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-1,04; 4,03</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-4,7; 2,44</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-1,76; 795,92</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-40,78; 202,65</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-28,06; 180,11</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-66,91; 93,34</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>3.716797033150571</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>3.273815125571562</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>3.766667954311517</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>4.226866163275888</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="6" t="n">
+        <v>0.7055825548281742</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.8012885046642375</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.9390591801097682</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.9042201869349696</v>
+      </c>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,291 +883,234 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>3,18</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>4,04</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>5,65</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>50,03%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>62,42%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>86,71%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>3.553795531951788</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.9138036843754342</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>1.483870388075875</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-0.6723654781410182</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>1.949121846233924</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.3144748931770489</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.4506585762380856</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.1498328911211831</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-1,16; 6,89</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-0,56; 8,71</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>0,59; 11,65</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-14,94; 155,71</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-11,87; 182,14</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>4,81; 257,22</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>0.7997473067736025</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-1.69660263795972</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.9863086961865487</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-4.548752530274631</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.05383438152197523</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.4234595730127815</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.2618768298510059</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.6707792818471473</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>6.503470055949605</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>3.467300062426432</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>3.981637864080192</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>2.349889164837419</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>7.875742921753052</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>1.974104895523641</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>1.787283050161769</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.9209873579975267</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>3,09</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>2,1</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1,89</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>3,03</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>51,07%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>34,68%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>27,43%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>46,2%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>0,74; 5,39</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-0,2; 3,81</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-0,2; 4,23</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>0,43; 5,62</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>9,72; 109,6</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-3,62; 72,48</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-3,88; 70,33</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>4,03; 105,27</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n">
+        <v>2.730429874241573</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.615207663262112</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>1.852736989724556</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>2.37682061556323</v>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="6" t="n">
+        <v>0.4898629789362465</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.2769132894389932</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.2730131113243431</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.3728709729844199</v>
+      </c>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.09923758035754204</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.4947159708524356</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.1758514030916931</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.4036886904463864</v>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="6" t="n">
+        <v>0.00394080599415122</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.07464272643656089</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.03599530276363534</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.06093714288969482</v>
+      </c>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>5.463941471602482</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>3.531950827326718</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>4.01957386870678</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>5.480360216633688</v>
+      </c>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="6" t="n">
+        <v>1.171702433507063</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.7330157381187101</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.6872539875809598</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>1.152643269392692</v>
+      </c>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
